--- a/biology/Médecine/Muscle_longissimus/Muscle_longissimus.xlsx
+++ b/biology/Médecine/Muscle_longissimus/Muscle_longissimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle longissimus est un muscle long et fin, il forme la partie moyenne de la gouttière para-vertébrale.
 </t>
@@ -513,16 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Longissimus thoracique : la masse commune des sacro-lombaires et les processus transverses des vertèbres lombales.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Longissimus thoracique : la masse commune des sacro-lombaires et les processus transverses des vertèbres lombales.
 Longissimus du cou : les processus transverses des vertèbres thoraciques T1 à T5
 Longissimus de la tête : les processus transverses des vertèbres thoraciques T1 à T5 et les processus articulaires des vertèbres cervicales C4 à C7.
-Terminaison 
-Longissimus thoracique : processus transverses de toutes les vertèbres thoraciques et bord latéral du tubercule des 10 dernières côtes de 3 à 12.
-Longissimus du cou : processus transverses des vertèbres cervicales C2 à C6.
-Longissimus de la tête : bord postérieur du processus mastoïde.
-Innervation
-Elle est assurée par les nerfs spinaux des étages correspondants.
 </t>
         </is>
       </c>
@@ -548,12 +559,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rapports </t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il sera recouvert par le dentelé postérieur, leur aponévrose intermédiaire, plus superficiellement par les rhomboïdes et encore plus superficiellement par le grand dorsal et le trapèze.
+          <t xml:space="preserve">Terminaison </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Longissimus thoracique : processus transverses de toutes les vertèbres thoraciques et bord latéral du tubercule des 10 dernières côtes de 3 à 12.
+Longissimus du cou : processus transverses des vertèbres cervicales C2 à C6.
+Longissimus de la tête : bord postérieur du processus mastoïde.
 </t>
         </is>
       </c>
@@ -579,12 +598,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Actions </t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il a une action d'extenseur du rachis et de stabilisateur de la charnière costo-transversaire.
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est assurée par les nerfs spinaux des étages correspondants.
 </t>
         </is>
       </c>
@@ -610,12 +635,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t xml:space="preserve">Rapports </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il sera recouvert par le dentelé postérieur, leur aponévrose intermédiaire, plus superficiellement par les rhomboïdes et encore plus superficiellement par le grand dorsal et le trapèze.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_longissimus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_longissimus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actions </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a une action d'extenseur du rachis et de stabilisateur de la charnière costo-transversaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_longissimus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_longissimus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Carnet d'anatomie Tome 2 – Tête, cou, dos. Pierre Kamina. Éd. MALOINE, 2014, planche "MUSCLE ÉRECTEURS DU RACHIS".  (ISBN 9782224100063)[1].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Carnet d'anatomie Tome 2 – Tête, cou, dos. Pierre Kamina. Éd. MALOINE, 2014, planche "MUSCLE ÉRECTEURS DU RACHIS".  (ISBN 9782224100063).</t>
         </is>
       </c>
     </row>
